--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BAEB094-1CE2-49E3-AA80-3B8E72882DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BD782A-0224-4320-90BA-191DAC03EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{397BA392-C4D1-4B11-AC71-4019DB25EF5B}"/>
   </bookViews>
@@ -393,87 +393,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33475A9-DE6A-4CE7-BD01-C55DB6B463A8}">
-  <dimension ref="B2:B16"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>15</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
